--- a/daten_DEU.xlsx
+++ b/daten_DEU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earyo\Dropbox\Arbeit\energy_Germany_for_journalist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y-osw\Dropbox\Arbeit\energy_Germany_for_journalist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE4109-869C-46DE-8C99-2A7F425BBAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130A426-C4F7-449B-B35F-2A30883AA67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>y-oswald@web.de</t>
   </si>
   <si>
-    <t>Basierend auf einer log-normal Verteilungsmodellierung/Interpolation UND auch noch Extrapolation von Energiemessungen aus der Studie:</t>
-  </si>
-  <si>
     <t>University of Leeds</t>
   </si>
   <si>
@@ -124,13 +121,16 @@
     <t>PhD in Ecological Economics mit Fokus auf Ungleichheit und Umverteilung von Energie und Treibhausgas-emissionen.</t>
   </si>
   <si>
-    <t>Die Basis fuer die Schaetzungen, ungefaehre Verteilung plus Durschnittskonsum der urspruenglichen Studie, sind aber erhalten.</t>
-  </si>
-  <si>
     <t>Szenario top 10% limitiert auf DE Durchschitt</t>
   </si>
   <si>
     <t>Szenario DE Durchschnitt als absolutes Limit</t>
+  </si>
+  <si>
+    <t>Die Basis fuer die Schaetzungen, ungefaehre Verteilung (ganz genau genommen der Gini koeffizient) plus Durchschnittskonsum (extrapoliert) (in $PPP) der urspruenglichen Studie, sind aber erhalten.</t>
+  </si>
+  <si>
+    <t>Basierend auf einer log-normal Verteilungsmodellierung/Interpolation UND auch noch Extrapolation von Konsumdaten und Energiemessungen aus der Studie:</t>
   </si>
 </sst>
 </file>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -529,47 +529,47 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" xr:uid="{F5D08E97-BA13-4AEC-8D81-72B282C643D4}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{F5D08E97-BA13-4AEC-8D81-72B282C643D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B6A5FE-AD32-4C6F-805D-801F93BD1673}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -633,10 +633,10 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
